--- a/story_xlsx_files_postpilotiiedits/13.xlsx
+++ b/story_xlsx_files_postpilotiiedits/13.xlsx
@@ -48,7 +48,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Despite the current tension, they had to go grocery shopping because they were hosting a dinner party for friends that evening and had little at home with which to cook. </t>
+    <t xml:space="preserve">Despite the current tension, they were hosting a dinner party for friends that evening and had little at home with which to cook. </t>
   </si>
   <si>
     <t>The grocery store smelled like lavender upon entering and was dimly lit with pine shelves in the entrance and obscure, organic products displayed on them.</t>
@@ -63,7 +63,7 @@
     <t>Emmanuella looked back at him and said, “Well if you were going to actually help cook, I would be fine with something else.”</t>
   </si>
   <si>
-    <t>Liam sighed, and finally said, “You know- you don’t want me to help.</t>
+    <t>Liam sighed, and said, “You know- you don’t want me to help.</t>
   </si>
   <si>
     <t xml:space="preserve">I try to, but it seems like I always get in the way!” </t>
@@ -99,7 +99,7 @@
     <t xml:space="preserve">Liam gazed in the direction of the magazines, but his eyes were glazed over as he was working things out in his head while Emmanuella scrutinized the pasta sauce again. </t>
   </si>
   <si>
-    <t>After a few minutes of thinking, Liam recollected himself, turned to her, and sighed, “Yes, I think the same thing.</t>
+    <t>After a few minutes of thinking, Liam recollected himself, and said coldly, “Yes, I think the same thing.</t>
   </si>
   <si>
     <t xml:space="preserve">I think we should break up because we could definitely be happier with other people.” </t>
@@ -108,7 +108,7 @@
     <t xml:space="preserve">Emmanuella nodded as she listened. </t>
   </si>
   <si>
-    <t>The cashier scanned their groceries.</t>
+    <t>The cashier began to scan their groceries.</t>
   </si>
   <si>
     <t>The cost came to $30, and Emmanuella paid with her credit card.</t>

--- a/story_xlsx_files_postpilotiiedits/13.xlsx
+++ b/story_xlsx_files_postpilotiiedits/13.xlsx
@@ -33,7 +33,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>The grocery store was not the place Emmanuella and Liam wanted to be at the moment considering that they had been fighting to the point where Emmanuella was thinking of breaking up with Liam.</t>
+      <t>The grocery store was not the place Emmanuella and Liam wanted to be at the moment considering that they had been fighting to the point where Emmanuella was seriously considering calling off the relationship.</t>
     </r>
   </si>
   <si>
@@ -60,7 +60,7 @@
     <t>“I guess we are having a pasta dish tonight,” Liam said.</t>
   </si>
   <si>
-    <t>Emmanuella looked back at him and said, “Well if you were going to actually help cook, I would be fine with something else.”</t>
+    <t>Emmanuella looked back at him and said, “Well, if you were going to actually help cook, I would be fine with something else.”</t>
   </si>
   <si>
     <t>Liam sighed, and said, “You know- you don’t want me to help.</t>
@@ -135,7 +135,7 @@
     <t>Liam chuckled and responded, “Hey!</t>
   </si>
   <si>
-    <t>Luna is mine and I want her back.”</t>
+    <t>Luna is mine, and I want her back.”</t>
   </si>
   <si>
     <r>
